--- a/src/testCase/c_useCase_file/Fiberbook/刚度约束设计响应/刚度比设计响应.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/刚度约束设计响应/刚度比设计响应.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="控件属性已经操作方法" sheetId="2" r:id="rId1"/>
@@ -482,66 +482,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Edit2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>刚度比下限文本框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -570,6 +566,10 @@
   </si>
   <si>
     <t>刚度约束设计响应--刚度比设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1035,10 +1035,10 @@
     <row r="1" spans="1:7" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -1081,16 +1081,16 @@
         <v>37</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>12</v>
@@ -1101,22 +1101,22 @@
     </row>
     <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>14</v>
@@ -1130,13 +1130,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>15</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -1170,94 +1170,94 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1331,10 +1331,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>23</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
@@ -1369,10 +1369,10 @@
         <v>27</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10">
@@ -1394,7 +1394,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>28</v>
